--- a/Library/excelResultSmokeSanity_SNCHV2.1.10B.xlsx
+++ b/Library/excelResultSmokeSanity_SNCHV2.1.10B.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>ADT\TC012DischargeHappyPath.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait time added on transfer bed selection </t>
+  </si>
+  <si>
+    <t>Access permission issue for IT user.</t>
   </si>
 </sst>
 </file>
@@ -583,7 +589,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +600,7 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,8 +748,12 @@
         <v>22</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -902,8 +912,12 @@
         <v>30</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -942,8 +956,12 @@
         <v>41</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -962,7 +980,9 @@
         <v>41</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
   </sheetData>
